--- a/KiCAD Project/BOM/Air Pick Assembly.xlsx
+++ b/KiCAD Project/BOM/Air Pick Assembly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE\Projects\1016 Breadboard Power Supply\KiCAD Project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43CF1CF-5E84-4EE7-AE30-46B8972C7864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1042F-8C48-4134-8F9A-049E5C1FE91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="22080" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14505" yWindow="0" windowWidth="24000" windowHeight="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Size Conversions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts List'!$A$4:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parts List'!$A$4:$H$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Size Conversions'!$A$4:$D$12</definedName>
     <definedName name="SizeConv">'Size Conversions'!$A$5:$D$12</definedName>
     <definedName name="SizeToAPTip">'AirPick Tips'!$D$5:$E$16</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>1016 Breadboard Power Supply</t>
   </si>
@@ -103,9 +103,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>R15</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5, R6, R10</t>
-  </si>
-  <si>
     <t>R7, R11</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>RC0603FR-0731K6L</t>
   </si>
   <si>
-    <t>RC0603FR-071K6L</t>
-  </si>
-  <si>
     <t>RC0603FR-07220KL</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>PTS636 SK25J SMTR LFS</t>
   </si>
   <si>
-    <t>TPS62130RGTR</t>
-  </si>
-  <si>
     <t>STM32C011F4U6TR</t>
   </si>
   <si>
@@ -313,9 +301,6 @@
     <t>31K6 100mW</t>
   </si>
   <si>
-    <t>1K6 100mW</t>
-  </si>
-  <si>
     <t>220K 100mW</t>
   </si>
   <si>
@@ -413,6 +398,12 @@
   </si>
   <si>
     <t>Width</t>
+  </si>
+  <si>
+    <t>TPS62130ARGTR</t>
+  </si>
+  <si>
+    <t>R5, R6, R10, R14</t>
   </si>
 </sst>
 </file>
@@ -491,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -505,9 +496,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -519,6 +507,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,7 +1448,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1505,56 +1502,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0DFB6C-3786-4918-9C1D-23EBCD1B9639}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7134225" y="7820025"/>
-          <a:ext cx="1390001" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="105" name="Picture 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1594,13 +1541,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1644,13 +1591,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1694,13 +1641,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1744,13 +1691,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1794,13 +1741,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1844,13 +1791,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1894,13 +1841,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1944,13 +1891,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1351901</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>360000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1994,13 +1941,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1351901</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>360000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2044,13 +1991,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1351901</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>360000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2094,13 +2041,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1390001</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2406,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,46 +2388,46 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>110</v>
+      <c r="E3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>120</v>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2491,107 +2438,107 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E5" s="7">
         <v>12</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="str">
         <f>"5050"</f>
         <v>5050</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G5,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" ref="H5:H35" si="0">VLOOKUP(VLOOKUP(G5,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
         <v>1/8</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="11">
         <v>12</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="12" t="str">
+      <c r="F6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11" t="str">
         <f>"3030"</f>
         <v>3030</v>
       </c>
-      <c r="H6" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G6,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H6" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3/32</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E7" s="7">
         <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>"3030"</f>
         <v>3030</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G7,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3/32</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="11">
         <v>8</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" ref="G8:G26" si="1">"0603"</f>
         <v>0603</v>
       </c>
-      <c r="H8" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G8,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
@@ -2603,51 +2550,51 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7">
         <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G9" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G9,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
-      <c r="H10" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G10,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H10" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
@@ -2659,51 +2606,51 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E11" s="7">
         <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H11" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G11,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>3</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
-      <c r="H12" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G12,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H12" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
@@ -2715,51 +2662,51 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7">
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G13,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="C14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="11">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
-      <c r="H14" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G14,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H14" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
@@ -2771,605 +2718,579 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" s="7">
         <v>8</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G15,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="11">
         <v>8</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
-      <c r="H16" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G16,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7">
         <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G17,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="11">
         <v>8</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
-      <c r="H18" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G18,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E19" s="7">
         <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G19,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="11">
         <v>8</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
-      <c r="H20" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G20,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E21" s="7">
         <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G21,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="A22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="C22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="11">
         <v>8</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="12" t="str">
-        <f>"0603"</f>
+      <c r="F22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
-      <c r="H22" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G22,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" s="7">
         <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f>"0603"</f>
+        <f t="shared" si="1"/>
         <v>0603</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G23,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="11">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0603</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="14">
+        <v>8</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>0603</v>
+      </c>
+      <c r="H25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="11">
+        <v>8</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0603</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="14">
         <v>8</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="12" t="str">
-        <f>"0603"</f>
-        <v>0603</v>
-      </c>
-      <c r="H24" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G24,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="7">
-        <v>8</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="7" t="str">
-        <f>"0603"</f>
-        <v>0603</v>
-      </c>
-      <c r="H25" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G25,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="12">
-        <v>2</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="12">
-        <v>8</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="12" t="str">
-        <f>"0603"</f>
-        <v>0603</v>
-      </c>
-      <c r="H26" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G26,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7">
-        <v>2</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="7">
-        <v>8</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="7" t="str">
-        <f>"0603"</f>
-        <v>0603</v>
-      </c>
-      <c r="H27" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G27,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="12">
-        <v>2</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="F27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="12">
-        <v>8</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="12" t="str">
+      <c r="G27" s="14" t="str">
         <f>"0805"</f>
         <v>0805</v>
       </c>
-      <c r="H28" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G28,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H27" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>4030</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="7" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B28" s="11">
         <v>1</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="C28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="11">
         <v>12</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="9" t="str">
+      <c r="F28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="13" t="str">
         <f>"1812"</f>
         <v>1812</v>
       </c>
-      <c r="H29" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G29,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>3/32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="12">
+    <row r="29" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="14">
         <v>1</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="C29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="14">
         <v>8</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="12" t="str">
+      <c r="F29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="14" t="str">
         <f>"0805"</f>
         <v>0805</v>
       </c>
-      <c r="H30" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G30,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H29" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>4030</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="C30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="11">
         <v>8</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="9" t="str">
+      <c r="F30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="13" t="str">
         <f>"3020"</f>
         <v>3020</v>
       </c>
-      <c r="H31" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G31,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>6040</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="31" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B31" s="14">
         <v>1</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="C31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="14">
         <v>8</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="12" t="str">
+      <c r="F31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="14" t="str">
         <f>"2020"</f>
         <v>2020</v>
       </c>
-      <c r="H32" s="12" t="str">
-        <f>VLOOKUP(VLOOKUP(G32,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H31" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>6040</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="7">
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="11">
         <v>1</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="C32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="11">
         <v>8</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="7" t="str">
+      <c r="F32" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="11" t="str">
         <f>"2716"</f>
         <v>2716</v>
       </c>
-      <c r="H33" s="7" t="str">
-        <f>VLOOKUP(VLOOKUP(G33,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>6040</v>
       </c>
     </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
     <row r="34" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="12">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12" t="e">
-        <f>VLOOKUP(VLOOKUP(G34,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="A34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="7">
+    <row r="35" spans="1:8" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="14">
         <v>2</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="H35" s="7" t="e">
-        <f>VLOOKUP(VLOOKUP(G35,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
+      <c r="C35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="14">
+        <v>16</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="14" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="12">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="12">
-        <v>16</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="12" t="e">
-        <f>VLOOKUP(VLOOKUP(G36,SizeConv,4,FALSE),SizeToAPTip,2,TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:H36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H36">
-      <sortCondition ref="H4:H36"/>
+  <autoFilter ref="A4:H35" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H35">
+      <sortCondition ref="H4:H35"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3389,36 +3310,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3668,7 +3589,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3676,27 +3597,27 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3708,7 +3629,7 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <f>IF(ISNUMBER(B5),254*B5/1000,C5)</f>
+        <f t="shared" ref="D5:D12" si="0">IF(ISNUMBER(B5),254*B5/1000,C5)</f>
         <v>7.62</v>
       </c>
     </row>
@@ -3721,7 +3642,7 @@
         <v>120</v>
       </c>
       <c r="D6">
-        <f>IF(ISNUMBER(B6),254*B6/1000,C6)</f>
+        <f t="shared" si="0"/>
         <v>30.48</v>
       </c>
     </row>
@@ -3734,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <f>IF(ISNUMBER(B7),254*B7/1000,C7)</f>
+        <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
     </row>
@@ -3747,7 +3668,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <f>IF(ISNUMBER(B8),254*B8/1000,C8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -3760,7 +3681,7 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <f>IF(ISNUMBER(B9),254*B9/1000,C9)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J9" s="5"/>
@@ -3774,7 +3695,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <f>IF(ISNUMBER(B10),254*B10/1000,C10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J10" s="5"/>
@@ -3788,7 +3709,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <f>IF(ISNUMBER(B11),254*B11/1000,C11)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -3801,7 +3722,7 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <f>IF(ISNUMBER(B12),254*B12/1000,C12)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
